--- a/File_assignments.xlsx
+++ b/File_assignments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ursulamennear/IdeaProjects/Travelling-Thief-Problem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF12FDD7-A56D-434A-912A-75A923E2F1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768D53FE-A033-BD4A-BD82-57B8461F11C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{547F530B-EF75-FF45-A708-489B0EEEC735}"/>
+    <workbookView xWindow="5100" yWindow="1980" windowWidth="27640" windowHeight="16940" xr2:uid="{547F530B-EF75-FF45-A708-489B0EEEC735}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
